--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2599.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2599.xlsx
@@ -354,7 +354,7 @@
         <v>1.462133872839909</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.002622627368184</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2599.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2599.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7868883951133954</v>
+        <v>1.472621202468872</v>
       </c>
       <c r="B1">
-        <v>1.462133872839909</v>
+        <v>2.299251317977905</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.161932468414307</v>
       </c>
       <c r="D1">
-        <v>2.002622627368184</v>
+        <v>3.313603639602661</v>
       </c>
       <c r="E1">
-        <v>0.9473140311276713</v>
+        <v>1.085882782936096</v>
       </c>
     </row>
   </sheetData>
